--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5818B9CA-C106-477C-B976-9651F3DCF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9E6A68-3A30-4EF2-8C7A-4C2DB531CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9E6A68-3A30-4EF2-8C7A-4C2DB531CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{931028FD-53FC-4F85-9857-1D510D5E0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931028FD-53FC-4F85-9857-1D510D5E0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4944A287-2EA7-4F0C-BF80-AF5917B77326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4944A287-2EA7-4F0C-BF80-AF5917B77326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4830A594-3122-48FE-85EE-799231649B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>
